--- a/case3_Borate/Excel_Files/_borate_UBK_530.xlsx
+++ b/case3_Borate/Excel_Files/_borate_UBK_530.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28820169\Downloads\BO_Papers\MEng_Code\case3_Borate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28820169\Downloads\BO_Papers\MEng_Code\case3_Borate\Excel_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D706C93-C471-4084-BB84-441180899813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FC8643-A721-4477-9B80-85B8633B4A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="glucose" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +42,7 @@
     <author>tc={5AF1EB17-828D-47F0-A2E0-4DB30A2B1BE1}</author>
   </authors>
   <commentList>
-    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{5AF1EB17-828D-47F0-A2E0-4DB30A2B1BE1}">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{5AF1EB17-828D-47F0-A2E0-4DB30A2B1BE1}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -58,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>g/l</t>
   </si>
@@ -250,6 +247,15 @@
   </si>
   <si>
     <t>F32</t>
+  </si>
+  <si>
+    <t>lapsed before feeding slug</t>
+  </si>
+  <si>
+    <t>minute</t>
+  </si>
+  <si>
+    <t>Un-adjusted Time</t>
   </si>
 </sst>
 </file>
@@ -453,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -500,6 +506,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,7 +719,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>glucose!$G$2:$G$27</c:f>
+              <c:f>glucose!$H$2:$H$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -923,7 +930,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>glucose!$G$2:$G$27</c:f>
+              <c:f>glucose!$H$2:$H$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1872,13 +1879,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1097280</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>365760</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -1907,231 +1914,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="glucose"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-          <cell r="G2">
-            <v>1.5430500000000001E-4</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>0.6</v>
-          </cell>
-          <cell r="G3">
-            <v>1.49925E-4</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>1.2</v>
-          </cell>
-          <cell r="G4">
-            <v>1.5125500000000001E-4</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>1.7999999999999998</v>
-          </cell>
-          <cell r="G5">
-            <v>1.4651499999999998E-4</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>2.4</v>
-          </cell>
-          <cell r="G6">
-            <v>1.4333500000000002E-4</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>3</v>
-          </cell>
-          <cell r="G7">
-            <v>1.4361500000000001E-4</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>3.5999999999999996</v>
-          </cell>
-          <cell r="G8">
-            <v>1.5319999999999998E-4</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>4.2</v>
-          </cell>
-          <cell r="G9">
-            <v>1.4867E-4</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>4.8</v>
-          </cell>
-          <cell r="G10">
-            <v>3.8174000000000004E-4</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>5.3999999999999995</v>
-          </cell>
-          <cell r="G11">
-            <v>3.817225E-3</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>6</v>
-          </cell>
-          <cell r="G12">
-            <v>7.4180600000000006E-3</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>6.6</v>
-          </cell>
-          <cell r="G13">
-            <v>8.9832499999999999E-3</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>7.1999999999999993</v>
-          </cell>
-          <cell r="G14">
-            <v>7.0869650000000006E-3</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>7.8</v>
-          </cell>
-          <cell r="G15">
-            <v>9.4986400000000009E-3</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>8.4</v>
-          </cell>
-          <cell r="G16">
-            <v>8.7409950000000014E-3</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>9</v>
-          </cell>
-          <cell r="G17">
-            <v>3.960435E-3</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>9.6</v>
-          </cell>
-          <cell r="G18">
-            <v>8.1804999999999996E-4</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>10.199999999999999</v>
-          </cell>
-          <cell r="G19">
-            <v>1.8696499999999998E-4</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>10.799999999999999</v>
-          </cell>
-          <cell r="G20">
-            <v>1.4917000000000001E-4</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>11.4</v>
-          </cell>
-          <cell r="G21">
-            <v>1.4582499999999998E-4</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>12</v>
-          </cell>
-          <cell r="G22">
-            <v>1.4863499999999999E-4</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>12.6</v>
-          </cell>
-          <cell r="G23">
-            <v>1.5746999999999999E-4</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>13.2</v>
-          </cell>
-          <cell r="G24">
-            <v>1.4927500000000001E-4</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>13.799999999999999</v>
-          </cell>
-          <cell r="G25">
-            <v>1.5212500000000002E-4</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>14.399999999999999</v>
-          </cell>
-          <cell r="G26">
-            <v>1.5136000000000001E-4</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>15</v>
-          </cell>
-          <cell r="G27">
-            <v>1.55415E-4</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2403,7 +2185,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="U2" dT="2024-10-21T14:49:01.57" personId="{75DC4CFE-A161-4013-83B8-642EC4E1C773}" id="{5AF1EB17-828D-47F0-A2E0-4DB30A2B1BE1}">
+  <threadedComment ref="V2" dT="2024-10-21T14:49:01.57" personId="{75DC4CFE-A161-4013-83B8-642EC4E1C773}" id="{5AF1EB17-828D-47F0-A2E0-4DB30A2B1BE1}">
     <text>Get from isotherm reg</text>
   </threadedComment>
 </ThreadedComments>
@@ -2411,32 +2193,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U74"/>
+  <dimension ref="A1:V74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -2447,61 +2229,64 @@
         <v>27</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -2509,100 +2294,104 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" ref="C2:C27" si="0">B2*$J$5</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="21">
+        <f>B2*$K$5</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="21">
         <v>36</v>
       </c>
-      <c r="E2" s="23">
-        <v>0</v>
-      </c>
       <c r="F2" s="23">
-        <f>E2/1000</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <f>F3*(1/1000)</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="23">
+        <f>F2/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <f>G3*(1/1000)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="8">
         <f>8.4*0.0166666667</f>
         <v>0.14000000028000001</v>
       </c>
-      <c r="I2" s="8">
+      <c r="J2" s="8">
         <v>30</v>
       </c>
-      <c r="J2" s="8">
+      <c r="K2" s="8">
         <v>150</v>
       </c>
-      <c r="K2" s="1">
-        <f>I2/J2</f>
+      <c r="L2" s="1">
+        <f>J2/K2</f>
         <v>0.2</v>
       </c>
-      <c r="L2" s="10">
+      <c r="M2">
+        <v>2.3E-3</v>
+      </c>
+      <c r="N2" s="9">
+        <v>24</v>
+      </c>
+      <c r="O2" s="11">
+        <v>2</v>
+      </c>
+      <c r="P2" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>60</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <f>B3*$K$5</f>
+        <v>0.6</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="21">
+        <v>72</v>
+      </c>
+      <c r="F3" s="23">
+        <v>0</v>
+      </c>
+      <c r="G3" s="23">
+        <f t="shared" ref="G3" si="0">F3/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3" si="1">G4*(1/1000)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="10">
         <f>1.752/1000</f>
         <v>1.7520000000000001E-3</v>
       </c>
-      <c r="M2" s="9">
-        <v>24</v>
-      </c>
-      <c r="N2" s="11">
-        <v>2</v>
-      </c>
-      <c r="O2" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="P2" s="1">
-        <v>60</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="D3" s="21">
-        <v>72</v>
-      </c>
-      <c r="E3" s="23">
-        <v>0</v>
-      </c>
-      <c r="F3" s="23">
-        <f t="shared" ref="F3:F34" si="1">E3/1000</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G34" si="2">F4*(1/1000)</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="5"/>
+      <c r="N3" s="10"/>
       <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2610,34 +2399,35 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" si="0"/>
+        <f>B4*$K$5</f>
         <v>1.2</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="24"/>
+      <c r="E4" s="21">
         <v>108</v>
       </c>
-      <c r="E4" s="23">
-        <v>0</v>
-      </c>
       <c r="F4" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="23">
+        <f>F4/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f>G5*(1/1000)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="8">
+      <c r="K4" s="8">
         <v>36</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2645,35 +2435,36 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="0"/>
+        <f>B5*$K$5</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="24"/>
+      <c r="E5" s="21">
         <v>144</v>
       </c>
-      <c r="E5" s="23">
-        <v>0</v>
-      </c>
       <c r="F5" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="23">
+        <f>F5/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f>G6*(1/1000)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="1">
-        <f>J4/60</f>
+      <c r="K5" s="1">
+        <f>K4/60</f>
         <v>0.6</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2681,25 +2472,35 @@
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="0"/>
+        <f>B6*$K$5</f>
         <v>2.4</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="24"/>
+      <c r="E6" s="21">
         <v>180</v>
       </c>
-      <c r="E6" s="23">
-        <v>0</v>
-      </c>
       <c r="F6" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="23">
+        <f>F6/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>G7*(1/1000)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2707,25 +2508,26 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="0"/>
+        <f>B7*$K$5</f>
         <v>3</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="24"/>
+      <c r="E7" s="21">
         <v>216</v>
       </c>
-      <c r="E7" s="23">
-        <v>0</v>
-      </c>
       <c r="F7" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="23">
+        <f>F7/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>G8*(1/1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2733,26 +2535,27 @@
         <v>6</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="0"/>
+        <f>B8*$K$5</f>
         <v>3.5999999999999996</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="24"/>
+      <c r="E8" s="21">
         <v>252</v>
       </c>
-      <c r="E8" s="23">
-        <v>0</v>
-      </c>
       <c r="F8" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="23">
+        <f>F8/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>G9*(1/1000)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2760,26 +2563,27 @@
         <v>7</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="0"/>
+        <f>B9*$K$5</f>
         <v>4.2</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="24"/>
+      <c r="E9" s="21">
         <v>288</v>
       </c>
-      <c r="E9" s="23">
-        <v>0</v>
-      </c>
       <c r="F9" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="23">
+        <f>F9/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>G10*(1/1000)</f>
         <v>8.4200000000000007E-6</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2787,26 +2591,27 @@
         <v>8</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="0"/>
+        <f>B10*$K$5</f>
         <v>4.8</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="24"/>
+      <c r="E10" s="21">
         <v>324</v>
       </c>
-      <c r="E10" s="23">
+      <c r="F10" s="23">
         <v>8.42</v>
       </c>
-      <c r="F10" s="23">
-        <f t="shared" si="1"/>
+      <c r="G10" s="23">
+        <f>F10/1000</f>
         <v>8.4200000000000004E-3</v>
       </c>
-      <c r="G10" s="1">
-        <f t="shared" si="2"/>
+      <c r="H10" s="1">
+        <f>G11*(1/1000)</f>
         <v>9.7360000000000003E-5</v>
       </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2814,25 +2619,26 @@
         <v>9</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="0"/>
+        <f>B11*$K$5</f>
         <v>5.3999999999999995</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="24"/>
+      <c r="E11" s="21">
         <v>360</v>
       </c>
-      <c r="E11" s="23">
+      <c r="F11" s="23">
         <v>97.36</v>
       </c>
-      <c r="F11" s="23">
-        <f t="shared" si="1"/>
+      <c r="G11" s="23">
+        <f>F11/1000</f>
         <v>9.7360000000000002E-2</v>
       </c>
-      <c r="G11" s="1">
-        <f t="shared" si="2"/>
+      <c r="H11" s="1">
+        <f>G12*(1/1000)</f>
         <v>3.6158999999999996E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -2840,26 +2646,27 @@
         <v>10</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="0"/>
+        <f>B12*$K$5</f>
         <v>6</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="24"/>
+      <c r="E12" s="21">
         <v>396</v>
       </c>
-      <c r="E12" s="23">
+      <c r="F12" s="23">
         <v>361.59</v>
       </c>
-      <c r="F12" s="23">
-        <f t="shared" si="1"/>
+      <c r="G12" s="23">
+        <f>F12/1000</f>
         <v>0.36158999999999997</v>
       </c>
-      <c r="G12" s="1">
-        <f t="shared" si="2"/>
+      <c r="H12" s="1">
+        <f>G13*(1/1000)</f>
         <v>6.9426000000000004E-4</v>
       </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2867,26 +2674,27 @@
         <v>11</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="0"/>
+        <f>B13*$K$5</f>
         <v>6.6</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="24"/>
+      <c r="E13" s="21">
         <v>432</v>
       </c>
-      <c r="E13" s="23">
+      <c r="F13" s="23">
         <v>694.26</v>
       </c>
-      <c r="F13" s="23">
-        <f t="shared" si="1"/>
+      <c r="G13" s="23">
+        <f>F13/1000</f>
         <v>0.69425999999999999</v>
       </c>
-      <c r="G13" s="1">
-        <f t="shared" si="2"/>
+      <c r="H13" s="1">
+        <f>G14*(1/1000)</f>
         <v>1.1298599999999999E-3</v>
       </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2894,26 +2702,27 @@
         <v>12</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="0"/>
+        <f>B14*$K$5</f>
         <v>7.1999999999999993</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="24"/>
+      <c r="E14" s="21">
         <v>468</v>
       </c>
-      <c r="E14" s="23">
+      <c r="F14" s="23">
         <v>1129.8599999999999</v>
       </c>
-      <c r="F14" s="23">
-        <f t="shared" si="1"/>
+      <c r="G14" s="23">
+        <f>F14/1000</f>
         <v>1.1298599999999999</v>
       </c>
-      <c r="G14" s="1">
-        <f t="shared" si="2"/>
+      <c r="H14" s="1">
+        <f>G15*(1/1000)</f>
         <v>1.4159800000000001E-3</v>
       </c>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2921,26 +2730,27 @@
         <v>13</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="0"/>
+        <f>B15*$K$5</f>
         <v>7.8</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="24"/>
+      <c r="E15" s="21">
         <v>504</v>
       </c>
-      <c r="E15" s="23">
+      <c r="F15" s="23">
         <v>1415.98</v>
       </c>
-      <c r="F15" s="23">
-        <f t="shared" si="1"/>
+      <c r="G15" s="23">
+        <f>F15/1000</f>
         <v>1.41598</v>
       </c>
-      <c r="G15" s="1">
-        <f t="shared" si="2"/>
+      <c r="H15" s="1">
+        <f>G16*(1/1000)</f>
         <v>1.4542800000000001E-3</v>
       </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2948,26 +2758,27 @@
         <v>14</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="0"/>
+        <f>B16*$K$5</f>
         <v>8.4</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="24"/>
+      <c r="E16" s="21">
         <v>540</v>
       </c>
-      <c r="E16" s="23">
+      <c r="F16" s="23">
         <v>1454.28</v>
       </c>
-      <c r="F16" s="23">
-        <f t="shared" si="1"/>
+      <c r="G16" s="23">
+        <f>F16/1000</f>
         <v>1.45428</v>
       </c>
-      <c r="G16" s="1">
-        <f t="shared" si="2"/>
+      <c r="H16" s="1">
+        <f>G17*(1/1000)</f>
         <v>1.3279500000000001E-3</v>
       </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2975,26 +2786,27 @@
         <v>15</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="0"/>
+        <f>B17*$K$5</f>
         <v>9</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="24"/>
+      <c r="E17" s="21">
         <v>576</v>
       </c>
-      <c r="E17" s="23">
+      <c r="F17" s="23">
         <v>1327.95</v>
       </c>
-      <c r="F17" s="23">
-        <f t="shared" si="1"/>
+      <c r="G17" s="23">
+        <f>F17/1000</f>
         <v>1.32795</v>
       </c>
-      <c r="G17" s="1">
-        <f t="shared" si="2"/>
+      <c r="H17" s="1">
+        <f>G18*(1/1000)</f>
         <v>8.7770999999999997E-4</v>
       </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -3002,26 +2814,27 @@
         <v>16</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="0"/>
+        <f>B18*$K$5</f>
         <v>9.6</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="24"/>
+      <c r="E18" s="21">
         <v>612</v>
       </c>
-      <c r="E18" s="23">
+      <c r="F18" s="23">
         <v>877.71</v>
       </c>
-      <c r="F18" s="23">
-        <f t="shared" si="1"/>
+      <c r="G18" s="23">
+        <f>F18/1000</f>
         <v>0.87770999999999999</v>
       </c>
-      <c r="G18" s="1">
-        <f t="shared" si="2"/>
+      <c r="H18" s="1">
+        <f>G19*(1/1000)</f>
         <v>3.9789999999999997E-4</v>
       </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -3029,26 +2842,27 @@
         <v>17</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="0"/>
+        <f>B19*$K$5</f>
         <v>10.199999999999999</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="24"/>
+      <c r="E19" s="21">
         <v>648</v>
       </c>
-      <c r="E19" s="23">
+      <c r="F19" s="23">
         <v>397.9</v>
       </c>
-      <c r="F19" s="23">
-        <f t="shared" si="1"/>
+      <c r="G19" s="23">
+        <f>F19/1000</f>
         <v>0.39789999999999998</v>
       </c>
-      <c r="G19" s="1">
-        <f t="shared" si="2"/>
+      <c r="H19" s="1">
+        <f>G20*(1/1000)</f>
         <v>1.1509E-4</v>
       </c>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -3056,26 +2870,27 @@
         <v>18</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="0"/>
+        <f>B20*$K$5</f>
         <v>10.799999999999999</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="24"/>
+      <c r="E20" s="21">
         <v>684</v>
       </c>
-      <c r="E20" s="23">
+      <c r="F20" s="23">
         <v>115.09</v>
       </c>
-      <c r="F20" s="23">
-        <f t="shared" si="1"/>
+      <c r="G20" s="23">
+        <f>F20/1000</f>
         <v>0.11509</v>
       </c>
-      <c r="G20" s="1">
-        <f t="shared" si="2"/>
+      <c r="H20" s="1">
+        <f>G21*(1/1000)</f>
         <v>2.4070000000000002E-5</v>
       </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -3083,26 +2898,27 @@
         <v>19</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="0"/>
+        <f>B21*$K$5</f>
         <v>11.4</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="24"/>
+      <c r="E21" s="21">
         <v>720</v>
       </c>
-      <c r="E21" s="23">
+      <c r="F21" s="23">
         <v>24.07</v>
       </c>
-      <c r="F21" s="23">
-        <f t="shared" si="1"/>
+      <c r="G21" s="23">
+        <f>F21/1000</f>
         <v>2.4070000000000001E-2</v>
       </c>
-      <c r="G21" s="1">
-        <f t="shared" si="2"/>
+      <c r="H21" s="1">
+        <f>G22*(1/1000)</f>
         <v>6.8099999999999992E-6</v>
       </c>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -3110,26 +2926,27 @@
         <v>20</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="0"/>
+        <f>B22*$K$5</f>
         <v>12</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="24"/>
+      <c r="E22" s="21">
         <v>756</v>
       </c>
-      <c r="E22" s="23">
+      <c r="F22" s="23">
         <v>6.81</v>
       </c>
-      <c r="F22" s="23">
-        <f t="shared" si="1"/>
+      <c r="G22" s="23">
+        <f>F22/1000</f>
         <v>6.8099999999999992E-3</v>
       </c>
-      <c r="G22" s="1">
-        <f t="shared" si="2"/>
+      <c r="H22" s="1">
+        <f>G23*(1/1000)</f>
         <v>3.8399999999999997E-6</v>
       </c>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -3137,26 +2954,27 @@
         <v>21</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="0"/>
+        <f>B23*$K$5</f>
         <v>12.6</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="24"/>
+      <c r="E23" s="21">
         <v>792</v>
       </c>
-      <c r="E23" s="23">
+      <c r="F23" s="23">
         <v>3.84</v>
       </c>
-      <c r="F23" s="23">
-        <f t="shared" si="1"/>
+      <c r="G23" s="23">
+        <f>F23/1000</f>
         <v>3.8399999999999997E-3</v>
       </c>
-      <c r="G23" s="1">
-        <f t="shared" si="2"/>
+      <c r="H23" s="1">
+        <f>G24*(1/1000)</f>
         <v>4.2500000000000008E-6</v>
       </c>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -3164,26 +2982,27 @@
         <v>22</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="0"/>
+        <f>B24*$K$5</f>
         <v>13.2</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="24"/>
+      <c r="E24" s="21">
         <v>828</v>
       </c>
-      <c r="E24" s="23">
+      <c r="F24" s="23">
         <v>4.25</v>
       </c>
-      <c r="F24" s="23">
-        <f t="shared" si="1"/>
+      <c r="G24" s="23">
+        <f>F24/1000</f>
         <v>4.2500000000000003E-3</v>
       </c>
-      <c r="G24" s="1">
-        <f t="shared" si="2"/>
+      <c r="H24" s="1">
+        <f>G25*(1/1000)</f>
         <v>2.7000000000000004E-6</v>
       </c>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -3191,26 +3010,27 @@
         <v>23</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="0"/>
+        <f>B25*$K$5</f>
         <v>13.799999999999999</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="24"/>
+      <c r="E25" s="21">
         <v>864</v>
       </c>
-      <c r="E25" s="23">
+      <c r="F25" s="23">
         <v>2.7</v>
       </c>
-      <c r="F25" s="23">
-        <f t="shared" si="1"/>
+      <c r="G25" s="23">
+        <f>F25/1000</f>
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="G25" s="1">
-        <f t="shared" si="2"/>
+      <c r="H25" s="1">
+        <f>G26*(1/1000)</f>
         <v>2.7599999999999998E-6</v>
       </c>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -3218,26 +3038,27 @@
         <v>24</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="0"/>
+        <f>B26*$K$5</f>
         <v>14.399999999999999</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="24"/>
+      <c r="E26" s="21">
         <v>900</v>
       </c>
-      <c r="E26" s="23">
+      <c r="F26" s="23">
         <v>2.76</v>
       </c>
-      <c r="F26" s="23">
-        <f t="shared" si="1"/>
+      <c r="G26" s="23">
+        <f>F26/1000</f>
         <v>2.7599999999999999E-3</v>
       </c>
-      <c r="G26" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H26" s="1">
+        <f>G27*(1/1000)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -3245,26 +3066,27 @@
         <v>25</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="0"/>
+        <f>B27*$K$5</f>
         <v>15</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="24"/>
+      <c r="E27" s="21">
         <v>936</v>
       </c>
-      <c r="E27" s="23">
-        <v>0</v>
-      </c>
       <c r="F27" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="23">
+        <f>F27/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <f>G28*(1/1000)</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>57</v>
       </c>
@@ -3272,25 +3094,26 @@
         <v>26</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" ref="C28:C34" si="3">B28*$J$5</f>
+        <f>B28*$K$5</f>
         <v>15.6</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="24"/>
+      <c r="E28" s="21">
         <v>972</v>
       </c>
-      <c r="E28" s="23">
-        <v>0</v>
-      </c>
       <c r="F28" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="23">
+        <f>F28/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <f>G29*(1/1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
@@ -3298,25 +3121,26 @@
         <v>27</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="3"/>
+        <f>B29*$K$5</f>
         <v>16.2</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="24"/>
+      <c r="E29" s="21">
         <v>1008</v>
       </c>
-      <c r="E29" s="23">
-        <v>0</v>
-      </c>
       <c r="F29" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="23">
+        <f>F29/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <f>G30*(1/1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
@@ -3324,25 +3148,26 @@
         <v>28</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="3"/>
+        <f>B30*$K$5</f>
         <v>16.8</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="24"/>
+      <c r="E30" s="21">
         <v>1044</v>
       </c>
-      <c r="E30" s="23">
-        <v>0</v>
-      </c>
       <c r="F30" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="23">
+        <f>F30/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <f>G31*(1/1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -3350,25 +3175,26 @@
         <v>29</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="3"/>
+        <f>B31*$K$5</f>
         <v>17.399999999999999</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="24"/>
+      <c r="E31" s="21">
         <v>1080</v>
       </c>
-      <c r="E31" s="23">
-        <v>0</v>
-      </c>
       <c r="F31" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="23">
+        <f>F31/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <f>G32*(1/1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>61</v>
       </c>
@@ -3376,25 +3202,26 @@
         <v>30</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="3"/>
+        <f>B32*$K$5</f>
         <v>18</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="24"/>
+      <c r="E32" s="21">
         <v>1116</v>
       </c>
-      <c r="E32" s="23">
-        <v>0</v>
-      </c>
       <c r="F32" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="23">
+        <f>F32/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <f>G33*(1/1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>62</v>
       </c>
@@ -3402,25 +3229,26 @@
         <v>31</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="3"/>
+        <f>B33*$K$5</f>
         <v>18.599999999999998</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="24"/>
+      <c r="E33" s="21">
         <v>1152</v>
       </c>
-      <c r="E33" s="23">
-        <v>0</v>
-      </c>
       <c r="F33" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="G33" s="23">
+        <f>F33/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <f>G34*(1/1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>63</v>
       </c>
@@ -3428,183 +3256,184 @@
         <v>32</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="3"/>
+        <f>B34*$K$5</f>
         <v>19.2</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="24"/>
+      <c r="E34" s="22">
         <v>1188</v>
       </c>
-      <c r="E34" s="23">
-        <v>0</v>
-      </c>
       <c r="F34" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E35" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="23">
+        <f>F34/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <f>G35*(1/1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E36" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E37" s="6"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E38" s="6"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E39" s="6"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E40" s="6"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E41" s="6"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E42" s="6"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E43" s="6"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E44" s="6"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E45" s="6"/>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E46" s="6"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F46" s="6"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E47" s="6"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E48" s="6"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F48" s="6"/>
-    </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E49" s="6"/>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F49" s="6"/>
-    </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E50" s="6"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E51" s="7"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E52" s="7"/>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E53" s="7"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F53" s="7"/>
-    </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E54" s="7"/>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F54" s="7"/>
-    </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E55" s="7"/>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F55" s="7"/>
-    </row>
-    <row r="56" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E56" s="7"/>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E57" s="7"/>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E58" s="7"/>
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F58" s="7"/>
-    </row>
-    <row r="59" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E59" s="7"/>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F59" s="7"/>
-    </row>
-    <row r="60" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E60" s="7"/>
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F60" s="7"/>
-    </row>
-    <row r="61" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E61" s="7"/>
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F61" s="7"/>
-    </row>
-    <row r="62" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E62" s="7"/>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F62" s="7"/>
-    </row>
-    <row r="63" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E63" s="7"/>
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F63" s="7"/>
-    </row>
-    <row r="64" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E64" s="7"/>
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F64" s="7"/>
-    </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E65" s="7"/>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F65" s="7"/>
-    </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E66" s="7"/>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F66" s="7"/>
-    </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E67" s="7"/>
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F67" s="7"/>
-    </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E68" s="7"/>
+      <c r="G67" s="7"/>
+    </row>
+    <row r="68" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F68" s="7"/>
-    </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E69" s="7"/>
+      <c r="G68" s="7"/>
+    </row>
+    <row r="69" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F69" s="7"/>
-    </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E70" s="7"/>
+      <c r="G69" s="7"/>
+    </row>
+    <row r="70" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F70" s="7"/>
-    </row>
-    <row r="71" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E71" s="7"/>
+      <c r="G70" s="7"/>
+    </row>
+    <row r="71" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F71" s="7"/>
-    </row>
-    <row r="72" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E72" s="7"/>
+      <c r="G71" s="7"/>
+    </row>
+    <row r="72" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F72" s="7"/>
-    </row>
-    <row r="73" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E73" s="7"/>
+      <c r="G72" s="7"/>
+    </row>
+    <row r="73" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F73" s="7"/>
-    </row>
-    <row r="74" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E74" s="7"/>
+      <c r="G73" s="7"/>
+    </row>
+    <row r="74" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/case3_Borate/Excel_Files/_borate_UBK_530.xlsx
+++ b/case3_Borate/Excel_Files/_borate_UBK_530.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28820169\Downloads\BO_Papers\MEng_Code\case3_Borate\Excel_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FC8643-A721-4477-9B80-85B8633B4A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D85F844-78B5-4B38-81D5-86135BF74FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -506,7 +506,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2195,8 +2194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2286,7 +2285,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -2294,10 +2293,9 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <f>B2*$K$5</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="24"/>
+        <f t="shared" ref="C2:C34" si="0">B2*$K$5</f>
+        <v>0</v>
+      </c>
       <c r="E2" s="21">
         <v>36</v>
       </c>
@@ -2326,8 +2324,9 @@
         <f>J2/K2</f>
         <v>0.2</v>
       </c>
-      <c r="M2">
-        <v>2.3E-3</v>
+      <c r="M2" s="10">
+        <f>(1.752/1000)*1.08</f>
+        <v>1.8921600000000002E-3</v>
       </c>
       <c r="N2" s="9">
         <v>24</v>
@@ -2365,10 +2364,9 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <f>B3*$K$5</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="D3" s="24"/>
       <c r="E3" s="21">
         <v>72</v>
       </c>
@@ -2376,16 +2374,12 @@
         <v>0</v>
       </c>
       <c r="G3" s="23">
-        <f t="shared" ref="G3" si="0">F3/1000</f>
+        <f t="shared" ref="G3" si="1">F3/1000</f>
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3" si="1">G4*(1/1000)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="10">
-        <f>1.752/1000</f>
-        <v>1.7520000000000001E-3</v>
+        <f t="shared" ref="H3" si="2">G4*(1/1000)</f>
+        <v>0</v>
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="5"/>
@@ -2399,10 +2393,9 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <f>B4*$K$5</f>
+        <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="D4" s="24"/>
       <c r="E4" s="21">
         <v>108</v>
       </c>
@@ -2410,11 +2403,11 @@
         <v>0</v>
       </c>
       <c r="G4" s="23">
-        <f>F4/1000</f>
+        <f t="shared" ref="G4:G34" si="3">F4/1000</f>
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <f>G5*(1/1000)</f>
+        <f t="shared" ref="H4:H34" si="4">G5*(1/1000)</f>
         <v>0</v>
       </c>
       <c r="J4" s="8" t="s">
@@ -2435,10 +2428,9 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <f>B5*$K$5</f>
+        <f t="shared" si="0"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="D5" s="24"/>
       <c r="E5" s="21">
         <v>144</v>
       </c>
@@ -2446,11 +2438,11 @@
         <v>0</v>
       </c>
       <c r="G5" s="23">
-        <f>F5/1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <f>G6*(1/1000)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -2472,10 +2464,9 @@
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <f>B6*$K$5</f>
+        <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="D6" s="24"/>
       <c r="E6" s="21">
         <v>180</v>
       </c>
@@ -2483,11 +2474,11 @@
         <v>0</v>
       </c>
       <c r="G6" s="23">
-        <f>F6/1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <f>G7*(1/1000)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J6" s="8" t="s">
@@ -2508,10 +2499,9 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <f>B7*$K$5</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D7" s="24"/>
       <c r="E7" s="21">
         <v>216</v>
       </c>
@@ -2519,11 +2509,11 @@
         <v>0</v>
       </c>
       <c r="G7" s="23">
-        <f>F7/1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <f>G8*(1/1000)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2535,10 +2525,9 @@
         <v>6</v>
       </c>
       <c r="C8" s="1">
-        <f>B8*$K$5</f>
+        <f t="shared" si="0"/>
         <v>3.5999999999999996</v>
       </c>
-      <c r="D8" s="24"/>
       <c r="E8" s="21">
         <v>252</v>
       </c>
@@ -2546,11 +2535,11 @@
         <v>0</v>
       </c>
       <c r="G8" s="23">
-        <f>F8/1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <f>G9*(1/1000)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
@@ -2563,10 +2552,9 @@
         <v>7</v>
       </c>
       <c r="C9" s="1">
-        <f>B9*$K$5</f>
+        <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
-      <c r="D9" s="24"/>
       <c r="E9" s="21">
         <v>288</v>
       </c>
@@ -2574,11 +2562,11 @@
         <v>0</v>
       </c>
       <c r="G9" s="23">
-        <f>F9/1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <f>G10*(1/1000)</f>
+        <f t="shared" si="4"/>
         <v>8.4200000000000007E-6</v>
       </c>
       <c r="I9" s="2"/>
@@ -2591,10 +2579,9 @@
         <v>8</v>
       </c>
       <c r="C10" s="1">
-        <f>B10*$K$5</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
-      <c r="D10" s="24"/>
       <c r="E10" s="21">
         <v>324</v>
       </c>
@@ -2602,11 +2589,11 @@
         <v>8.42</v>
       </c>
       <c r="G10" s="23">
-        <f>F10/1000</f>
+        <f t="shared" si="3"/>
         <v>8.4200000000000004E-3</v>
       </c>
       <c r="H10" s="1">
-        <f>G11*(1/1000)</f>
+        <f t="shared" si="4"/>
         <v>9.7360000000000003E-5</v>
       </c>
       <c r="I10" s="2"/>
@@ -2619,10 +2606,9 @@
         <v>9</v>
       </c>
       <c r="C11" s="1">
-        <f>B11*$K$5</f>
+        <f t="shared" si="0"/>
         <v>5.3999999999999995</v>
       </c>
-      <c r="D11" s="24"/>
       <c r="E11" s="21">
         <v>360</v>
       </c>
@@ -2630,11 +2616,11 @@
         <v>97.36</v>
       </c>
       <c r="G11" s="23">
-        <f>F11/1000</f>
+        <f t="shared" si="3"/>
         <v>9.7360000000000002E-2</v>
       </c>
       <c r="H11" s="1">
-        <f>G12*(1/1000)</f>
+        <f t="shared" si="4"/>
         <v>3.6158999999999996E-4</v>
       </c>
     </row>
@@ -2646,10 +2632,9 @@
         <v>10</v>
       </c>
       <c r="C12" s="1">
-        <f>B12*$K$5</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D12" s="24"/>
       <c r="E12" s="21">
         <v>396</v>
       </c>
@@ -2657,11 +2642,11 @@
         <v>361.59</v>
       </c>
       <c r="G12" s="23">
-        <f>F12/1000</f>
+        <f t="shared" si="3"/>
         <v>0.36158999999999997</v>
       </c>
       <c r="H12" s="1">
-        <f>G13*(1/1000)</f>
+        <f t="shared" si="4"/>
         <v>6.9426000000000004E-4</v>
       </c>
       <c r="I12" s="2"/>
@@ -2674,10 +2659,9 @@
         <v>11</v>
       </c>
       <c r="C13" s="1">
-        <f>B13*$K$5</f>
+        <f t="shared" si="0"/>
         <v>6.6</v>
       </c>
-      <c r="D13" s="24"/>
       <c r="E13" s="21">
         <v>432</v>
       </c>
@@ -2685,11 +2669,11 @@
         <v>694.26</v>
       </c>
       <c r="G13" s="23">
-        <f>F13/1000</f>
+        <f t="shared" si="3"/>
         <v>0.69425999999999999</v>
       </c>
       <c r="H13" s="1">
-        <f>G14*(1/1000)</f>
+        <f t="shared" si="4"/>
         <v>1.1298599999999999E-3</v>
       </c>
       <c r="I13" s="2"/>
@@ -2702,10 +2686,9 @@
         <v>12</v>
       </c>
       <c r="C14" s="1">
-        <f>B14*$K$5</f>
+        <f t="shared" si="0"/>
         <v>7.1999999999999993</v>
       </c>
-      <c r="D14" s="24"/>
       <c r="E14" s="21">
         <v>468</v>
       </c>
@@ -2713,11 +2696,11 @@
         <v>1129.8599999999999</v>
       </c>
       <c r="G14" s="23">
-        <f>F14/1000</f>
+        <f t="shared" si="3"/>
         <v>1.1298599999999999</v>
       </c>
       <c r="H14" s="1">
-        <f>G15*(1/1000)</f>
+        <f t="shared" si="4"/>
         <v>1.4159800000000001E-3</v>
       </c>
       <c r="I14" s="2"/>
@@ -2730,10 +2713,9 @@
         <v>13</v>
       </c>
       <c r="C15" s="1">
-        <f>B15*$K$5</f>
+        <f t="shared" si="0"/>
         <v>7.8</v>
       </c>
-      <c r="D15" s="24"/>
       <c r="E15" s="21">
         <v>504</v>
       </c>
@@ -2741,11 +2723,11 @@
         <v>1415.98</v>
       </c>
       <c r="G15" s="23">
-        <f>F15/1000</f>
+        <f t="shared" si="3"/>
         <v>1.41598</v>
       </c>
       <c r="H15" s="1">
-        <f>G16*(1/1000)</f>
+        <f t="shared" si="4"/>
         <v>1.4542800000000001E-3</v>
       </c>
       <c r="I15" s="2"/>
@@ -2758,10 +2740,9 @@
         <v>14</v>
       </c>
       <c r="C16" s="1">
-        <f>B16*$K$5</f>
+        <f t="shared" si="0"/>
         <v>8.4</v>
       </c>
-      <c r="D16" s="24"/>
       <c r="E16" s="21">
         <v>540</v>
       </c>
@@ -2769,11 +2750,11 @@
         <v>1454.28</v>
       </c>
       <c r="G16" s="23">
-        <f>F16/1000</f>
+        <f t="shared" si="3"/>
         <v>1.45428</v>
       </c>
       <c r="H16" s="1">
-        <f>G17*(1/1000)</f>
+        <f t="shared" si="4"/>
         <v>1.3279500000000001E-3</v>
       </c>
       <c r="I16" s="2"/>
@@ -2786,10 +2767,9 @@
         <v>15</v>
       </c>
       <c r="C17" s="1">
-        <f>B17*$K$5</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D17" s="24"/>
       <c r="E17" s="21">
         <v>576</v>
       </c>
@@ -2797,11 +2777,11 @@
         <v>1327.95</v>
       </c>
       <c r="G17" s="23">
-        <f>F17/1000</f>
+        <f t="shared" si="3"/>
         <v>1.32795</v>
       </c>
       <c r="H17" s="1">
-        <f>G18*(1/1000)</f>
+        <f t="shared" si="4"/>
         <v>8.7770999999999997E-4</v>
       </c>
       <c r="I17" s="2"/>
@@ -2814,10 +2794,9 @@
         <v>16</v>
       </c>
       <c r="C18" s="1">
-        <f>B18*$K$5</f>
+        <f t="shared" si="0"/>
         <v>9.6</v>
       </c>
-      <c r="D18" s="24"/>
       <c r="E18" s="21">
         <v>612</v>
       </c>
@@ -2825,11 +2804,11 @@
         <v>877.71</v>
       </c>
       <c r="G18" s="23">
-        <f>F18/1000</f>
+        <f t="shared" si="3"/>
         <v>0.87770999999999999</v>
       </c>
       <c r="H18" s="1">
-        <f>G19*(1/1000)</f>
+        <f t="shared" si="4"/>
         <v>3.9789999999999997E-4</v>
       </c>
       <c r="I18" s="2"/>
@@ -2842,10 +2821,9 @@
         <v>17</v>
       </c>
       <c r="C19" s="1">
-        <f>B19*$K$5</f>
+        <f t="shared" si="0"/>
         <v>10.199999999999999</v>
       </c>
-      <c r="D19" s="24"/>
       <c r="E19" s="21">
         <v>648</v>
       </c>
@@ -2853,11 +2831,11 @@
         <v>397.9</v>
       </c>
       <c r="G19" s="23">
-        <f>F19/1000</f>
+        <f t="shared" si="3"/>
         <v>0.39789999999999998</v>
       </c>
       <c r="H19" s="1">
-        <f>G20*(1/1000)</f>
+        <f t="shared" si="4"/>
         <v>1.1509E-4</v>
       </c>
       <c r="I19" s="2"/>
@@ -2870,10 +2848,9 @@
         <v>18</v>
       </c>
       <c r="C20" s="1">
-        <f>B20*$K$5</f>
+        <f t="shared" si="0"/>
         <v>10.799999999999999</v>
       </c>
-      <c r="D20" s="24"/>
       <c r="E20" s="21">
         <v>684</v>
       </c>
@@ -2881,11 +2858,11 @@
         <v>115.09</v>
       </c>
       <c r="G20" s="23">
-        <f>F20/1000</f>
+        <f t="shared" si="3"/>
         <v>0.11509</v>
       </c>
       <c r="H20" s="1">
-        <f>G21*(1/1000)</f>
+        <f t="shared" si="4"/>
         <v>2.4070000000000002E-5</v>
       </c>
       <c r="I20" s="2"/>
@@ -2898,10 +2875,9 @@
         <v>19</v>
       </c>
       <c r="C21" s="1">
-        <f>B21*$K$5</f>
+        <f t="shared" si="0"/>
         <v>11.4</v>
       </c>
-      <c r="D21" s="24"/>
       <c r="E21" s="21">
         <v>720</v>
       </c>
@@ -2909,11 +2885,11 @@
         <v>24.07</v>
       </c>
       <c r="G21" s="23">
-        <f>F21/1000</f>
+        <f t="shared" si="3"/>
         <v>2.4070000000000001E-2</v>
       </c>
       <c r="H21" s="1">
-        <f>G22*(1/1000)</f>
+        <f t="shared" si="4"/>
         <v>6.8099999999999992E-6</v>
       </c>
       <c r="I21" s="2"/>
@@ -2926,10 +2902,9 @@
         <v>20</v>
       </c>
       <c r="C22" s="1">
-        <f>B22*$K$5</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D22" s="24"/>
       <c r="E22" s="21">
         <v>756</v>
       </c>
@@ -2937,11 +2912,11 @@
         <v>6.81</v>
       </c>
       <c r="G22" s="23">
-        <f>F22/1000</f>
+        <f t="shared" si="3"/>
         <v>6.8099999999999992E-3</v>
       </c>
       <c r="H22" s="1">
-        <f>G23*(1/1000)</f>
+        <f t="shared" si="4"/>
         <v>3.8399999999999997E-6</v>
       </c>
       <c r="I22" s="2"/>
@@ -2954,10 +2929,9 @@
         <v>21</v>
       </c>
       <c r="C23" s="1">
-        <f>B23*$K$5</f>
+        <f t="shared" si="0"/>
         <v>12.6</v>
       </c>
-      <c r="D23" s="24"/>
       <c r="E23" s="21">
         <v>792</v>
       </c>
@@ -2965,11 +2939,11 @@
         <v>3.84</v>
       </c>
       <c r="G23" s="23">
-        <f>F23/1000</f>
+        <f t="shared" si="3"/>
         <v>3.8399999999999997E-3</v>
       </c>
       <c r="H23" s="1">
-        <f>G24*(1/1000)</f>
+        <f t="shared" si="4"/>
         <v>4.2500000000000008E-6</v>
       </c>
       <c r="I23" s="2"/>
@@ -2982,10 +2956,9 @@
         <v>22</v>
       </c>
       <c r="C24" s="1">
-        <f>B24*$K$5</f>
+        <f t="shared" si="0"/>
         <v>13.2</v>
       </c>
-      <c r="D24" s="24"/>
       <c r="E24" s="21">
         <v>828</v>
       </c>
@@ -2993,11 +2966,11 @@
         <v>4.25</v>
       </c>
       <c r="G24" s="23">
-        <f>F24/1000</f>
+        <f t="shared" si="3"/>
         <v>4.2500000000000003E-3</v>
       </c>
       <c r="H24" s="1">
-        <f>G25*(1/1000)</f>
+        <f t="shared" si="4"/>
         <v>2.7000000000000004E-6</v>
       </c>
       <c r="I24" s="2"/>
@@ -3010,10 +2983,9 @@
         <v>23</v>
       </c>
       <c r="C25" s="1">
-        <f>B25*$K$5</f>
+        <f t="shared" si="0"/>
         <v>13.799999999999999</v>
       </c>
-      <c r="D25" s="24"/>
       <c r="E25" s="21">
         <v>864</v>
       </c>
@@ -3021,11 +2993,11 @@
         <v>2.7</v>
       </c>
       <c r="G25" s="23">
-        <f>F25/1000</f>
+        <f t="shared" si="3"/>
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="H25" s="1">
-        <f>G26*(1/1000)</f>
+        <f t="shared" si="4"/>
         <v>2.7599999999999998E-6</v>
       </c>
       <c r="I25" s="2"/>
@@ -3038,10 +3010,9 @@
         <v>24</v>
       </c>
       <c r="C26" s="1">
-        <f>B26*$K$5</f>
+        <f t="shared" si="0"/>
         <v>14.399999999999999</v>
       </c>
-      <c r="D26" s="24"/>
       <c r="E26" s="21">
         <v>900</v>
       </c>
@@ -3049,11 +3020,11 @@
         <v>2.76</v>
       </c>
       <c r="G26" s="23">
-        <f>F26/1000</f>
+        <f t="shared" si="3"/>
         <v>2.7599999999999999E-3</v>
       </c>
       <c r="H26" s="1">
-        <f>G27*(1/1000)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I26" s="2"/>
@@ -3066,10 +3037,9 @@
         <v>25</v>
       </c>
       <c r="C27" s="1">
-        <f>B27*$K$5</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D27" s="24"/>
       <c r="E27" s="21">
         <v>936</v>
       </c>
@@ -3077,11 +3047,11 @@
         <v>0</v>
       </c>
       <c r="G27" s="23">
-        <f>F27/1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H27" s="1">
-        <f>G28*(1/1000)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I27" s="2"/>
@@ -3094,10 +3064,9 @@
         <v>26</v>
       </c>
       <c r="C28" s="1">
-        <f>B28*$K$5</f>
+        <f t="shared" si="0"/>
         <v>15.6</v>
       </c>
-      <c r="D28" s="24"/>
       <c r="E28" s="21">
         <v>972</v>
       </c>
@@ -3105,11 +3074,11 @@
         <v>0</v>
       </c>
       <c r="G28" s="23">
-        <f>F28/1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <f>G29*(1/1000)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3121,10 +3090,9 @@
         <v>27</v>
       </c>
       <c r="C29" s="1">
-        <f>B29*$K$5</f>
+        <f t="shared" si="0"/>
         <v>16.2</v>
       </c>
-      <c r="D29" s="24"/>
       <c r="E29" s="21">
         <v>1008</v>
       </c>
@@ -3132,11 +3100,11 @@
         <v>0</v>
       </c>
       <c r="G29" s="23">
-        <f>F29/1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H29" s="1">
-        <f>G30*(1/1000)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3148,10 +3116,9 @@
         <v>28</v>
       </c>
       <c r="C30" s="1">
-        <f>B30*$K$5</f>
+        <f t="shared" si="0"/>
         <v>16.8</v>
       </c>
-      <c r="D30" s="24"/>
       <c r="E30" s="21">
         <v>1044</v>
       </c>
@@ -3159,11 +3126,11 @@
         <v>0</v>
       </c>
       <c r="G30" s="23">
-        <f>F30/1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H30" s="1">
-        <f>G31*(1/1000)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3175,10 +3142,9 @@
         <v>29</v>
       </c>
       <c r="C31" s="1">
-        <f>B31*$K$5</f>
+        <f t="shared" si="0"/>
         <v>17.399999999999999</v>
       </c>
-      <c r="D31" s="24"/>
       <c r="E31" s="21">
         <v>1080</v>
       </c>
@@ -3186,11 +3152,11 @@
         <v>0</v>
       </c>
       <c r="G31" s="23">
-        <f>F31/1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H31" s="1">
-        <f>G32*(1/1000)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3202,10 +3168,9 @@
         <v>30</v>
       </c>
       <c r="C32" s="1">
-        <f>B32*$K$5</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D32" s="24"/>
       <c r="E32" s="21">
         <v>1116</v>
       </c>
@@ -3213,11 +3178,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="23">
-        <f>F32/1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H32" s="1">
-        <f>G33*(1/1000)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3229,10 +3194,9 @@
         <v>31</v>
       </c>
       <c r="C33" s="1">
-        <f>B33*$K$5</f>
+        <f t="shared" si="0"/>
         <v>18.599999999999998</v>
       </c>
-      <c r="D33" s="24"/>
       <c r="E33" s="21">
         <v>1152</v>
       </c>
@@ -3240,11 +3204,11 @@
         <v>0</v>
       </c>
       <c r="G33" s="23">
-        <f>F33/1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H33" s="1">
-        <f>G34*(1/1000)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3256,10 +3220,9 @@
         <v>32</v>
       </c>
       <c r="C34" s="1">
-        <f>B34*$K$5</f>
+        <f t="shared" si="0"/>
         <v>19.2</v>
       </c>
-      <c r="D34" s="24"/>
       <c r="E34" s="22">
         <v>1188</v>
       </c>
@@ -3267,11 +3230,11 @@
         <v>0</v>
       </c>
       <c r="G34" s="23">
-        <f>F34/1000</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H34" s="1">
-        <f>G35*(1/1000)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3933,6 +3896,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010048117A934AEAC441AF47E945F1AED0C0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7272456f5b53c8ae1c345851aef95d27">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c39f1452-4462-4979-941b-c1317cfd14ce" xmlns:ns3="60199b31-2299-4531-8872-a3eaba744cbd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="16ed4d68a838bfbb08a7468a1792fb8f" ns2:_="" ns3:_="">
     <xsd:import namespace="c39f1452-4462-4979-941b-c1317cfd14ce"/>
@@ -4189,16 +4161,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21AAFDFA-AF70-4552-A086-9BCC58150335}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF42137A-B7F2-4A60-BAD9-4B8683F12BBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4215,12 +4186,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21AAFDFA-AF70-4552-A086-9BCC58150335}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>